--- a/Assets/Levels/test.xlsx
+++ b/Assets/Levels/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11850"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
@@ -1315,12 +1315,12 @@
         <v>16</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>16</v>
@@ -1359,12 +1359,12 @@
         <v>16</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>16</v>
@@ -1403,12 +1403,12 @@
         <v>2</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -1447,12 +1447,12 @@
         <v>2</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -1491,12 +1491,12 @@
         <v>2</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -1535,12 +1535,12 @@
         <v>2</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -1579,12 +1579,12 @@
         <v>2</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>16</v>
@@ -1623,12 +1623,12 @@
         <v>2</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
         <v>16</v>
@@ -1667,12 +1667,12 @@
         <v>2</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3">
         <v>17</v>
@@ -1711,51 +1711,51 @@
         <v>15</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
